--- a/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
+++ b/data/trans_dic/ProbViv_estruc-Edad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.1213220051708841</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.09985950986096366</v>
+        <v>0.09985950986096365</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.04525730108763699</v>
+        <v>0.04244439681536479</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08345914931207214</v>
+        <v>0.07743146541152204</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07100456217647695</v>
+        <v>0.07035231631417603</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1429807254424185</v>
+        <v>0.1347301162628345</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.175147805891079</v>
+        <v>0.1747343485678892</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1365090284897543</v>
+        <v>0.1373163411019347</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08905226104731749</v>
+        <v>0.09197357423581135</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.101250506808839</v>
+        <v>0.09975468586833501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1055879567907039</v>
+        <v>0.1041675114456426</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1665122852475922</v>
+        <v>0.1712702394098558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1654036483342044</v>
+        <v>0.1644051578470337</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1538730787531269</v>
+        <v>0.1554299049673711</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1194778892944691</v>
+        <v>0.119477889294469</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.07997380771480259</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09969690261779528</v>
+        <v>0.09969690261779526</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09027111553705744</v>
+        <v>0.0920487612070973</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0637290087802195</v>
+        <v>0.06218804030326319</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08369008922079063</v>
+        <v>0.08286553526127727</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1468147584441784</v>
+        <v>0.1496796955331996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09921255952605963</v>
+        <v>0.09939562300736905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1158324363082891</v>
+        <v>0.1165804988896783</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06412103202954622</v>
+        <v>0.06415831806555679</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.09369371106585814</v>
+        <v>0.09140196259392641</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.08294093970390248</v>
+        <v>0.08317256224306321</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1071458929813597</v>
+        <v>0.1061754299283459</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1290571997221918</v>
+        <v>0.132207909831583</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1104508803335517</v>
+        <v>0.1121984572216886</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.09072570690129711</v>
+        <v>0.09072570690129712</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.1092628846844017</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.09998534087095326</v>
+        <v>0.09998534087095323</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.07194231313500518</v>
+        <v>0.07249470152090721</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0905068469276054</v>
+        <v>0.09095263634024302</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.08622375511775422</v>
+        <v>0.08597637960898841</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1163134631975036</v>
+        <v>0.1175531644150389</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1329650215607941</v>
+        <v>0.1301920320373282</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1161073860316489</v>
+        <v>0.1171157602280153</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>0.0767656264009243</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.09165340998597943</v>
+        <v>0.0916534099859794</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.08384328051269103</v>
+        <v>0.0849461410203996</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05927445330669015</v>
+        <v>0.05912568743223191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07615570910308442</v>
+        <v>0.07692355532971076</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.132645824669659</v>
+        <v>0.1349266191282917</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.09705692993300885</v>
+        <v>0.0973449507299827</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1092466506762669</v>
+        <v>0.1091860353680062</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.0927861722720391</v>
+        <v>0.09278617227203909</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.09980240014849977</v>
+        <v>0.09980240014849974</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.09699341486675976</v>
+        <v>0.09699341486675975</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06856769727716915</v>
+        <v>0.06885581185257997</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.08095664047619558</v>
+        <v>0.07961974192934237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.08047063882563672</v>
+        <v>0.0820375423032805</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1220016999166917</v>
+        <v>0.126197714706091</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1216919656055738</v>
+        <v>0.1218848470429717</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1141082430499808</v>
+        <v>0.1155185999341792</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.08954592698644513</v>
+        <v>0.08981966478837909</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09495048231650099</v>
+        <v>0.09447554175000494</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.09398665731551784</v>
+        <v>0.09457141731853017</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1113589095605645</v>
+        <v>0.1120593932805328</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1137753717715375</v>
+        <v>0.1132565501899328</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1095243152290794</v>
+        <v>0.1092716577716998</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>18456</v>
+        <v>17309</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>30255</v>
+        <v>28070</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>54695</v>
+        <v>54193</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>58307</v>
+        <v>54942</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>63493</v>
+        <v>63343</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>105154</v>
+        <v>105775</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>42468</v>
+        <v>43861</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>50801</v>
+        <v>50050</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>103331</v>
+        <v>101941</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>79408</v>
+        <v>81677</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>82988</v>
+        <v>82487</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>150584</v>
+        <v>152107</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>55937</v>
+        <v>57039</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>39606</v>
+        <v>38648</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>103871</v>
+        <v>102847</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>90975</v>
+        <v>92750</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61658</v>
+        <v>61772</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>143764</v>
+        <v>144692</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>44864</v>
+        <v>44890</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>68976</v>
+        <v>67288</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>119092</v>
+        <v>119425</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>74968</v>
+        <v>74289</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>95010</v>
+        <v>97329</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>158593</v>
+        <v>161102</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>43838</v>
+        <v>44174</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>55044</v>
+        <v>55315</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>104979</v>
+        <v>104678</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>70875</v>
+        <v>71631</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>80865</v>
+        <v>79179</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>141363</v>
+        <v>142590</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>34131</v>
+        <v>34580</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>25996</v>
+        <v>25931</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>64401</v>
+        <v>65050</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>53997</v>
+        <v>54926</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>42566</v>
+        <v>42693</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>92384</v>
+        <v>92333</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>21270</v>
+        <v>21359</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>37613</v>
+        <v>36992</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>62349</v>
+        <v>63563</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>37845</v>
+        <v>39146</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>56539</v>
+        <v>56629</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>88412</v>
+        <v>89505</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>316155</v>
+        <v>317122</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>354474</v>
+        <v>352701</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>682710</v>
+        <v>686958</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>393169</v>
+        <v>395642</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>424752</v>
+        <v>422815</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>795574</v>
+        <v>793739</v>
       </c>
     </row>
     <row r="36">
